--- a/SparkProjects/target/classes/ipRegion.xlsx
+++ b/SparkProjects/target/classes/ipRegion.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spencer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandler/Documents/Projects/ipdatabase-master/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="地域信息表" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">地域信息表!$A$1:$C$618</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="651">
   <si>
     <t>地域</t>
   </si>
@@ -394,9 +402,6 @@
   </si>
   <si>
     <t>宣城市</t>
-  </si>
-  <si>
-    <t>湖北省</t>
   </si>
   <si>
     <t>武汉市</t>
@@ -1869,18 +1874,10 @@
     <t>津巴布韦</t>
   </si>
   <si>
-    <t xml:space="preserve">全球 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中国</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1890,6 +1887,141 @@
   </si>
   <si>
     <t>MVGeoID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>beijing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tianjing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heibei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanxi_J</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neimenggu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liaoning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jilin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heilongjiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanghai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiangsu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhejiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anhui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hubei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sichuan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guizhou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yunnan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fujian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiangxi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shandong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>henan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangdong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangxizhuangzu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hainan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chongqin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xizang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanxi_S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gansu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qinghai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ningxiahuizu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xinjiangweihuer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hubei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>China</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1901,14 +2033,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1966,16 +2098,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2062,12 +2194,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -2097,12 +2229,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -2308,31 +2440,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C618"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A602" workbookViewId="0">
+      <selection activeCell="B622" sqref="B622"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>617</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -2341,9 +2473,9 @@
         <v>1156110000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>618</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -2352,9 +2484,9 @@
         <v>1156120000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>619</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -2363,9 +2495,9 @@
         <v>1156130000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>619</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -2374,9 +2506,9 @@
         <v>1156130100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>619</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2385,9 +2517,9 @@
         <v>1156130200</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>619</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -2396,9 +2528,9 @@
         <v>1156130300</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>619</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -2407,9 +2539,9 @@
         <v>1156130400</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>619</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -2418,9 +2550,9 @@
         <v>1156130500</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>619</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -2429,9 +2561,9 @@
         <v>1156130600</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>619</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -2440,9 +2572,9 @@
         <v>1156130700</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>619</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -2451,9 +2583,9 @@
         <v>1156130800</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>619</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -2462,9 +2594,9 @@
         <v>1156130900</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>619</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -2473,9 +2605,9 @@
         <v>1156131000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>619</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
@@ -2484,9 +2616,9 @@
         <v>1156131100</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>620</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -2495,9 +2627,9 @@
         <v>1156140000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>620</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
@@ -2506,9 +2638,9 @@
         <v>1156140100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>620</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
@@ -2517,9 +2649,9 @@
         <v>1156140200</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>620</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
@@ -2528,9 +2660,9 @@
         <v>1156140300</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>620</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
@@ -2539,9 +2671,9 @@
         <v>1156140400</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>620</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
@@ -2550,9 +2682,9 @@
         <v>1156140500</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>620</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
@@ -2561,9 +2693,9 @@
         <v>1156140600</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>620</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
@@ -2572,9 +2704,9 @@
         <v>1156140700</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>620</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
@@ -2583,9 +2715,9 @@
         <v>1156140800</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>620</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -2594,9 +2726,9 @@
         <v>1156140900</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>620</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
@@ -2605,9 +2737,9 @@
         <v>1156141000</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>620</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
@@ -2616,9 +2748,9 @@
         <v>1156141100</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>621</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
@@ -2627,9 +2759,9 @@
         <v>1156150000</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>621</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
@@ -2638,9 +2770,9 @@
         <v>1156150100</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>621</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
@@ -2649,9 +2781,9 @@
         <v>1156150200</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>621</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>30</v>
@@ -2660,9 +2792,9 @@
         <v>1156150300</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>27</v>
+        <v>621</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
@@ -2671,9 +2803,9 @@
         <v>1156150400</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>621</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>32</v>
@@ -2682,9 +2814,9 @@
         <v>1156150500</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>621</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>33</v>
@@ -2693,9 +2825,9 @@
         <v>1156150600</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>27</v>
+        <v>621</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
@@ -2704,9 +2836,9 @@
         <v>1156150700</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>621</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>35</v>
@@ -2715,9 +2847,9 @@
         <v>1156150800</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>27</v>
+        <v>621</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
@@ -2726,9 +2858,9 @@
         <v>1156150900</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>27</v>
+        <v>621</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>37</v>
@@ -2737,9 +2869,9 @@
         <v>1156152200</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>27</v>
+        <v>621</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>38</v>
@@ -2748,9 +2880,9 @@
         <v>1156152500</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>621</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>39</v>
@@ -2759,9 +2891,9 @@
         <v>1156152900</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>622</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>40</v>
@@ -2770,9 +2902,9 @@
         <v>1156210000</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>622</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>41</v>
@@ -2781,9 +2913,9 @@
         <v>1156210100</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>622</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>42</v>
@@ -2792,9 +2924,9 @@
         <v>1156210200</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>622</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>43</v>
@@ -2803,9 +2935,9 @@
         <v>1156210300</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>622</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>44</v>
@@ -2814,9 +2946,9 @@
         <v>1156210400</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>40</v>
+        <v>622</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>45</v>
@@ -2825,9 +2957,9 @@
         <v>1156210500</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>40</v>
+        <v>622</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>46</v>
@@ -2836,9 +2968,9 @@
         <v>1156210600</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>622</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>47</v>
@@ -2847,9 +2979,9 @@
         <v>1156210700</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>40</v>
+        <v>622</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>48</v>
@@ -2858,9 +2990,9 @@
         <v>1156210800</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>40</v>
+        <v>622</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>49</v>
@@ -2869,9 +3001,9 @@
         <v>1156210900</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>40</v>
+        <v>622</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>50</v>
@@ -2880,9 +3012,9 @@
         <v>1156211000</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>40</v>
+        <v>622</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>51</v>
@@ -2891,9 +3023,9 @@
         <v>1156211100</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>40</v>
+        <v>622</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>52</v>
@@ -2902,9 +3034,9 @@
         <v>1156211200</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>40</v>
+        <v>622</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>53</v>
@@ -2913,9 +3045,9 @@
         <v>1156211300</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>40</v>
+        <v>622</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>54</v>
@@ -2924,9 +3056,9 @@
         <v>1156211400</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>623</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>55</v>
@@ -2935,9 +3067,9 @@
         <v>1156220000</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>623</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>56</v>
@@ -2946,9 +3078,9 @@
         <v>1156220100</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>55</v>
+        <v>623</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>57</v>
@@ -2957,9 +3089,9 @@
         <v>1156220200</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>55</v>
+        <v>623</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>58</v>
@@ -2968,9 +3100,9 @@
         <v>1156220300</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>55</v>
+        <v>623</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>59</v>
@@ -2979,9 +3111,9 @@
         <v>1156220400</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>55</v>
+        <v>623</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>60</v>
@@ -2990,9 +3122,9 @@
         <v>1156220500</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>55</v>
+        <v>623</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>61</v>
@@ -3001,9 +3133,9 @@
         <v>1156220600</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>55</v>
+        <v>623</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>62</v>
@@ -3012,9 +3144,9 @@
         <v>1156220700</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>55</v>
+        <v>623</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>63</v>
@@ -3023,9 +3155,9 @@
         <v>1156220800</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>55</v>
+        <v>623</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>64</v>
@@ -3034,9 +3166,9 @@
         <v>1156222400</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>624</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>65</v>
@@ -3045,9 +3177,9 @@
         <v>1156230000</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>624</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>66</v>
@@ -3056,9 +3188,9 @@
         <v>1156230100</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>65</v>
+        <v>624</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>67</v>
@@ -3067,9 +3199,9 @@
         <v>1156230200</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>65</v>
+        <v>624</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>68</v>
@@ -3078,9 +3210,9 @@
         <v>1156230300</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>65</v>
+        <v>624</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>69</v>
@@ -3089,9 +3221,9 @@
         <v>1156230400</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>65</v>
+        <v>624</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>70</v>
@@ -3100,9 +3232,9 @@
         <v>1156230500</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>65</v>
+        <v>624</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>71</v>
@@ -3111,9 +3243,9 @@
         <v>1156230600</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>65</v>
+        <v>624</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>72</v>
@@ -3122,9 +3254,9 @@
         <v>1156230700</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>65</v>
+        <v>624</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>73</v>
@@ -3133,9 +3265,9 @@
         <v>1156230800</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>65</v>
+        <v>624</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>74</v>
@@ -3144,9 +3276,9 @@
         <v>1156230900</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>65</v>
+        <v>624</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>75</v>
@@ -3155,9 +3287,9 @@
         <v>1156231000</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>65</v>
+        <v>624</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>76</v>
@@ -3166,9 +3298,9 @@
         <v>1156231100</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>65</v>
+        <v>624</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>77</v>
@@ -3177,9 +3309,9 @@
         <v>1156231200</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>65</v>
+        <v>624</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>78</v>
@@ -3188,9 +3320,9 @@
         <v>1156232700</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>625</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>79</v>
@@ -3199,9 +3331,9 @@
         <v>1156310000</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>626</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>80</v>
@@ -3210,9 +3342,9 @@
         <v>1156320000</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>80</v>
+        <v>626</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>81</v>
@@ -3221,9 +3353,9 @@
         <v>1156320100</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>80</v>
+        <v>626</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>82</v>
@@ -3232,9 +3364,9 @@
         <v>1156320200</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>80</v>
+        <v>626</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>83</v>
@@ -3243,9 +3375,9 @@
         <v>1156320300</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>80</v>
+        <v>626</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>84</v>
@@ -3254,9 +3386,9 @@
         <v>1156320400</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>80</v>
+        <v>626</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>85</v>
@@ -3265,9 +3397,9 @@
         <v>1156320500</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>80</v>
+        <v>626</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>86</v>
@@ -3276,9 +3408,9 @@
         <v>1156320600</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>80</v>
+        <v>626</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>87</v>
@@ -3287,9 +3419,9 @@
         <v>1156320700</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>80</v>
+        <v>626</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>88</v>
@@ -3298,9 +3430,9 @@
         <v>1156320800</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>80</v>
+        <v>626</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>89</v>
@@ -3309,9 +3441,9 @@
         <v>1156320900</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>80</v>
+        <v>626</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>90</v>
@@ -3320,9 +3452,9 @@
         <v>1156321000</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>80</v>
+        <v>626</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>91</v>
@@ -3331,9 +3463,9 @@
         <v>1156321100</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>80</v>
+        <v>626</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>92</v>
@@ -3342,9 +3474,9 @@
         <v>1156321200</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>80</v>
+        <v>626</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>93</v>
@@ -3353,9 +3485,9 @@
         <v>1156321300</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>627</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>94</v>
@@ -3364,9 +3496,9 @@
         <v>1156330000</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>94</v>
+        <v>627</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>95</v>
@@ -3375,9 +3507,9 @@
         <v>1156330100</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>94</v>
+        <v>627</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>96</v>
@@ -3386,9 +3518,9 @@
         <v>1156330200</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>94</v>
+        <v>627</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>97</v>
@@ -3397,9 +3529,9 @@
         <v>1156330300</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>94</v>
+        <v>627</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>98</v>
@@ -3408,9 +3540,9 @@
         <v>1156330400</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>94</v>
+        <v>627</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>99</v>
@@ -3419,9 +3551,9 @@
         <v>1156330500</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>94</v>
+        <v>627</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>100</v>
@@ -3430,9 +3562,9 @@
         <v>1156330600</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>94</v>
+        <v>627</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>101</v>
@@ -3441,9 +3573,9 @@
         <v>1156330700</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>94</v>
+        <v>627</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>102</v>
@@ -3452,9 +3584,9 @@
         <v>1156330800</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>94</v>
+        <v>627</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>103</v>
@@ -3463,9 +3595,9 @@
         <v>1156330900</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>94</v>
+        <v>627</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>104</v>
@@ -3474,9 +3606,9 @@
         <v>1156331000</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>94</v>
+        <v>627</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>105</v>
@@ -3485,9 +3617,9 @@
         <v>1156331100</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>106</v>
+        <v>628</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>106</v>
@@ -3496,9 +3628,9 @@
         <v>1156340000</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>106</v>
+        <v>628</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>107</v>
@@ -3507,9 +3639,9 @@
         <v>1156340100</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>106</v>
+        <v>628</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>108</v>
@@ -3518,9 +3650,9 @@
         <v>1156340200</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>106</v>
+        <v>628</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>109</v>
@@ -3529,9 +3661,9 @@
         <v>1156340300</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>106</v>
+        <v>628</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>110</v>
@@ -3540,9 +3672,9 @@
         <v>1156340400</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>106</v>
+        <v>628</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>111</v>
@@ -3551,9 +3683,9 @@
         <v>1156340500</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>106</v>
+        <v>628</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>112</v>
@@ -3562,9 +3694,9 @@
         <v>1156340600</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>106</v>
+        <v>628</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>113</v>
@@ -3573,9 +3705,9 @@
         <v>1156340700</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>106</v>
+        <v>628</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>114</v>
@@ -3584,9 +3716,9 @@
         <v>1156340800</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>106</v>
+        <v>628</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>115</v>
@@ -3595,9 +3727,9 @@
         <v>1156341000</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>106</v>
+        <v>628</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>116</v>
@@ -3606,9 +3738,9 @@
         <v>1156341100</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>106</v>
+        <v>628</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>117</v>
@@ -3617,9 +3749,9 @@
         <v>1156341200</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>106</v>
+        <v>628</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>118</v>
@@ -3628,9 +3760,9 @@
         <v>1156341300</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>106</v>
+        <v>628</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>119</v>
@@ -3639,9 +3771,9 @@
         <v>1156341400</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>106</v>
+        <v>628</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>120</v>
@@ -3650,9 +3782,9 @@
         <v>1156341500</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>106</v>
+        <v>628</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>121</v>
@@ -3661,9 +3793,9 @@
         <v>1156341600</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>106</v>
+        <v>628</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>122</v>
@@ -3672,9 +3804,9 @@
         <v>1156341700</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>106</v>
+        <v>628</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>123</v>
@@ -3683,5435 +3815,5435 @@
         <v>1156341800</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>629</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>124</v>
+        <v>648</v>
       </c>
       <c r="C125" s="1">
         <v>1156420000</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="C126" s="1">
         <v>1156420100</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>124</v>
+        <v>629</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C127" s="1">
         <v>1156420200</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>124</v>
+        <v>629</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C128" s="1">
         <v>1156420300</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>124</v>
+        <v>629</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C129" s="1">
         <v>1156420500</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>124</v>
+        <v>629</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C130" s="1">
         <v>1156420600</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>124</v>
+        <v>629</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C131" s="1">
         <v>1156420700</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>124</v>
+        <v>629</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C132" s="1">
         <v>1156420800</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>124</v>
+        <v>629</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C133" s="1">
         <v>1156420900</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>124</v>
+        <v>629</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C134" s="1">
         <v>1156421000</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>124</v>
+        <v>629</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C135" s="1">
         <v>1156421100</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>124</v>
+        <v>629</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C136" s="1">
         <v>1156421200</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>124</v>
+        <v>629</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C137" s="1">
         <v>1156421300</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>124</v>
+        <v>629</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C138" s="1">
         <v>1156422800</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>124</v>
+        <v>629</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C139" s="1">
         <v>1156429000</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>139</v>
+        <v>630</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C140" s="1">
         <v>1156430000</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="C141" s="1">
         <v>1156430100</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>139</v>
+        <v>630</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C142" s="1">
         <v>1156430200</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>139</v>
+        <v>630</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C143" s="1">
         <v>1156430300</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>139</v>
+        <v>630</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C144" s="1">
         <v>1156430400</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>139</v>
+        <v>630</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C145" s="1">
         <v>1156430500</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>139</v>
+        <v>630</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C146" s="1">
         <v>1156430600</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>139</v>
+        <v>630</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C147" s="1">
         <v>1156430700</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>139</v>
+        <v>630</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C148" s="1">
         <v>1156430800</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>139</v>
+        <v>630</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C149" s="1">
         <v>1156430900</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>139</v>
+        <v>630</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C150" s="1">
         <v>1156431000</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>139</v>
+        <v>630</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C151" s="1">
         <v>1156431100</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>139</v>
+        <v>630</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C152" s="1">
         <v>1156431200</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>139</v>
+        <v>630</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C153" s="1">
         <v>1156431300</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>139</v>
+        <v>630</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C154" s="1">
         <v>1156433100</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>154</v>
+        <v>631</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C155" s="1">
         <v>1156510000</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B156" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="C156" s="1">
         <v>1156510100</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>154</v>
+        <v>631</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C157" s="1">
         <v>1156510300</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>154</v>
+        <v>631</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C158" s="1">
         <v>1156510400</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>154</v>
+        <v>631</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C159" s="1">
         <v>1156510500</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>154</v>
+        <v>631</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C160" s="1">
         <v>1156510600</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>154</v>
+        <v>631</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C161" s="1">
         <v>1156510700</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>154</v>
+        <v>631</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C162" s="1">
         <v>1156510800</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>154</v>
+        <v>631</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C163" s="1">
         <v>1156510900</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>154</v>
+        <v>631</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C164" s="1">
         <v>1156511000</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>154</v>
+        <v>631</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C165" s="1">
         <v>1156511100</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>154</v>
+        <v>631</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C166" s="1">
         <v>1156511300</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>154</v>
+        <v>631</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C167" s="1">
         <v>1156511400</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>154</v>
+        <v>631</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C168" s="1">
         <v>1156511500</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>154</v>
+        <v>631</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C169" s="1">
         <v>1156511600</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>154</v>
+        <v>631</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C170" s="1">
         <v>1156511700</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>154</v>
+        <v>631</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C171" s="1">
         <v>1156511800</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>154</v>
+        <v>631</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C172" s="1">
         <v>1156511900</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>154</v>
+        <v>631</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C173" s="1">
         <v>1156512000</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>154</v>
+        <v>631</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C174" s="1">
         <v>1156513200</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>154</v>
+        <v>631</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C175" s="1">
         <v>1156513300</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>154</v>
+        <v>631</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C176" s="1">
         <v>1156513400</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>176</v>
+        <v>632</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C177" s="1">
         <v>1156520000</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="C178" s="1">
         <v>1156520100</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>176</v>
+        <v>632</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C179" s="1">
         <v>1156520200</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>176</v>
+        <v>632</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C180" s="1">
         <v>1156520300</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>176</v>
+        <v>632</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C181" s="1">
         <v>1156520400</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>176</v>
+        <v>632</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C182" s="1">
         <v>1156522200</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>176</v>
+        <v>632</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C183" s="1">
         <v>1156522300</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>176</v>
+        <v>632</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C184" s="1">
         <v>1156522400</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>176</v>
+        <v>632</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C185" s="1">
         <v>1156522600</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>176</v>
+        <v>632</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C186" s="1">
         <v>1156522700</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>186</v>
+        <v>633</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C187" s="1">
         <v>1156530000</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="C188" s="1">
         <v>1156530100</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>186</v>
+        <v>633</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C189" s="1">
         <v>1156530300</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>186</v>
+        <v>633</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C190" s="1">
         <v>1156530400</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>186</v>
+        <v>633</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C191" s="1">
         <v>1156530500</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>186</v>
+        <v>633</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C192" s="1">
         <v>1156530600</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>186</v>
+        <v>633</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C193" s="1">
         <v>1156530700</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>186</v>
+        <v>633</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C194" s="1">
         <v>1156530800</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>186</v>
+        <v>633</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C195" s="1">
         <v>1156530900</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>186</v>
+        <v>633</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C196" s="1">
         <v>1156532300</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>186</v>
+        <v>633</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C197" s="1">
         <v>1156532500</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>186</v>
+        <v>633</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C198" s="1">
         <v>1156532600</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>186</v>
+        <v>633</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C199" s="1">
         <v>1156532800</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>186</v>
+        <v>633</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C200" s="1">
         <v>1156532900</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>186</v>
+        <v>633</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C201" s="1">
         <v>1156533100</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>186</v>
+        <v>633</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C202" s="1">
         <v>1156533300</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>186</v>
+        <v>633</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C203" s="1">
         <v>1156533400</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>203</v>
+        <v>634</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C204" s="1">
         <v>1156350000</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="C205" s="1">
         <v>1156350100</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>203</v>
+        <v>634</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C206" s="1">
         <v>1156350200</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>203</v>
+        <v>634</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C207" s="1">
         <v>1156350300</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>203</v>
+        <v>634</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C208" s="1">
         <v>1156350400</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>203</v>
+        <v>634</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C209" s="1">
         <v>1156350500</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>203</v>
+        <v>634</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C210" s="1">
         <v>1156350600</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>203</v>
+        <v>634</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C211" s="1">
         <v>1156350700</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>203</v>
+        <v>634</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C212" s="1">
         <v>1156350800</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>203</v>
+        <v>634</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C213" s="1">
         <v>1156350900</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>213</v>
+        <v>635</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C214" s="1">
         <v>1156360000</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="C215" s="1">
         <v>1156360100</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>213</v>
+        <v>635</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C216" s="1">
         <v>1156360200</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>213</v>
+        <v>635</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C217" s="1">
         <v>1156360300</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>213</v>
+        <v>635</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C218" s="1">
         <v>1156360400</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>213</v>
+        <v>635</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C219" s="1">
         <v>1156360500</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>213</v>
+        <v>635</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C220" s="1">
         <v>1156360600</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>213</v>
+        <v>635</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C221" s="1">
         <v>1156360700</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>213</v>
+        <v>635</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C222" s="1">
         <v>1156360800</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>213</v>
+        <v>635</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C223" s="1">
         <v>1156360900</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>213</v>
+        <v>635</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C224" s="1">
         <v>1156361000</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>213</v>
+        <v>635</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C225" s="1">
         <v>1156361100</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>225</v>
+        <v>636</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C226" s="1">
         <v>1156370000</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="C227" s="1">
         <v>1156370100</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>225</v>
+        <v>636</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C228" s="1">
         <v>1156370200</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>225</v>
+        <v>636</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C229" s="1">
         <v>1156370300</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>225</v>
+        <v>636</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C230" s="1">
         <v>1156370400</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>225</v>
+        <v>636</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C231" s="1">
         <v>1156370500</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>225</v>
+        <v>636</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C232" s="1">
         <v>1156370600</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>225</v>
+        <v>636</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C233" s="1">
         <v>1156370700</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>225</v>
+        <v>636</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C234" s="1">
         <v>1156370800</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>225</v>
+        <v>636</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C235" s="1">
         <v>1156370900</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>225</v>
+        <v>636</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C236" s="1">
         <v>1156371000</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>225</v>
+        <v>636</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C237" s="1">
         <v>1156371100</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>225</v>
+        <v>636</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C238" s="1">
         <v>1156371200</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>225</v>
+        <v>636</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C239" s="1">
         <v>1156371300</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>225</v>
+        <v>636</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C240" s="1">
         <v>1156371400</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>225</v>
+        <v>636</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C241" s="1">
         <v>1156371500</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>225</v>
+        <v>636</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C242" s="1">
         <v>1156371600</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>225</v>
+        <v>636</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C243" s="1">
         <v>1156371700</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>243</v>
+        <v>637</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C244" s="1">
         <v>1156410000</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="C245" s="1">
         <v>1156410100</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>243</v>
+        <v>637</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C246" s="1">
         <v>1156410200</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>243</v>
+        <v>637</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C247" s="1">
         <v>1156410300</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>243</v>
+        <v>637</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C248" s="1">
         <v>1156410400</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>243</v>
+        <v>637</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C249" s="1">
         <v>1156410500</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>243</v>
+        <v>637</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C250" s="1">
         <v>1156410600</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>243</v>
+        <v>637</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C251" s="1">
         <v>1156410700</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>243</v>
+        <v>637</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C252" s="1">
         <v>1156410800</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>243</v>
+        <v>637</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C253" s="1">
         <v>1156410900</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>243</v>
+        <v>637</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C254" s="1">
         <v>1156411000</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>243</v>
+        <v>637</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C255" s="1">
         <v>1156411100</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>243</v>
+        <v>637</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C256" s="1">
         <v>1156411200</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>243</v>
+        <v>637</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C257" s="1">
         <v>1156411300</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>243</v>
+        <v>637</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C258" s="1">
         <v>1156411400</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>243</v>
+        <v>637</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C259" s="1">
         <v>1156411500</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>243</v>
+        <v>637</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C260" s="1">
         <v>1156411600</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>243</v>
+        <v>637</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C261" s="1">
         <v>1156411700</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>243</v>
+        <v>637</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C262" s="1">
         <v>1156419000</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>261</v>
+        <v>638</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C263" s="1">
         <v>1156440000</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="C264" s="1">
         <v>1156440100</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>261</v>
+        <v>638</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C265" s="1">
         <v>1156440200</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>261</v>
+        <v>638</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C266" s="1">
         <v>1156440300</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>261</v>
+        <v>638</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C267" s="1">
         <v>1156440400</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>261</v>
+        <v>638</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C268" s="1">
         <v>1156440500</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>261</v>
+        <v>638</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C269" s="1">
         <v>1156440600</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>261</v>
+        <v>638</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C270" s="1">
         <v>1156440700</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>261</v>
+        <v>638</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C271" s="1">
         <v>1156440800</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>261</v>
+        <v>638</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C272" s="1">
         <v>1156440900</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>261</v>
+        <v>638</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C273" s="1">
         <v>1156441200</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>261</v>
+        <v>638</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C274" s="1">
         <v>1156441300</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>261</v>
+        <v>638</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C275" s="1">
         <v>1156441400</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>261</v>
+        <v>638</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C276" s="1">
         <v>1156441500</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>261</v>
+        <v>638</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C277" s="1">
         <v>1156441600</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>261</v>
+        <v>638</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C278" s="1">
         <v>1156441700</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>261</v>
+        <v>638</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C279" s="1">
         <v>1156441800</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>261</v>
+        <v>638</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C280" s="1">
         <v>1156441900</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>261</v>
+        <v>638</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C281" s="1">
         <v>1156442000</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>261</v>
+        <v>638</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C282" s="1">
         <v>1156445100</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>261</v>
+        <v>638</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C283" s="1">
         <v>1156445200</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>261</v>
+        <v>638</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C284" s="1">
         <v>1156445300</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>283</v>
+        <v>639</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C285" s="1">
         <v>1156450000</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="C286" s="1">
         <v>1156450100</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>283</v>
+        <v>639</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C287" s="1">
         <v>1156450200</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>283</v>
+        <v>639</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C288" s="1">
         <v>1156450300</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>283</v>
+        <v>639</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C289" s="1">
         <v>1156450400</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>283</v>
+        <v>639</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C290" s="1">
         <v>1156450500</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>283</v>
+        <v>639</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C291" s="1">
         <v>1156450600</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>283</v>
+        <v>639</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C292" s="1">
         <v>1156450700</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>283</v>
+        <v>639</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C293" s="1">
         <v>1156450800</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>283</v>
+        <v>639</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C294" s="1">
         <v>1156450900</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>283</v>
+        <v>639</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C295" s="1">
         <v>1156451000</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>283</v>
+        <v>639</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C296" s="1">
         <v>1156451100</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>283</v>
+        <v>639</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C297" s="1">
         <v>1156451200</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>283</v>
+        <v>639</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C298" s="1">
         <v>1156451300</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>283</v>
+        <v>639</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C299" s="1">
         <v>1156451400</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>298</v>
+        <v>640</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C300" s="1">
         <v>1156460000</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="C301" s="1">
         <v>1156460100</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>298</v>
+        <v>640</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C302" s="1">
         <v>1156460200</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>298</v>
+        <v>640</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C303" s="1">
         <v>1156469000</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>301</v>
+        <v>641</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C304" s="1">
         <v>1156500000</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>302</v>
+        <v>642</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C305" s="1">
         <v>1156540000</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="C306" s="1">
         <v>1156540100</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>302</v>
+        <v>642</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C307" s="1">
         <v>1156542100</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>302</v>
+        <v>642</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C308" s="1">
         <v>1156542200</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>302</v>
+        <v>642</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C309" s="1">
         <v>1156542300</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>302</v>
+        <v>642</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C310" s="1">
         <v>1156542400</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>302</v>
+        <v>642</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C311" s="1">
         <v>1156542500</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>302</v>
+        <v>642</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C312" s="1">
         <v>1156542600</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>310</v>
+        <v>643</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C313" s="1">
         <v>1156610000</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B314" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="C314" s="1">
         <v>1156610100</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>310</v>
+        <v>643</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C315" s="1">
         <v>1156610200</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>310</v>
+        <v>643</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C316" s="1">
         <v>1156610300</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>310</v>
+        <v>643</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C317" s="1">
         <v>1156610400</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>310</v>
+        <v>643</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C318" s="1">
         <v>1156610500</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>310</v>
+        <v>643</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C319" s="1">
         <v>1156610600</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>310</v>
+        <v>643</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C320" s="1">
         <v>1156610700</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>310</v>
+        <v>643</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C321" s="1">
         <v>1156610800</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>310</v>
+        <v>643</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C322" s="1">
         <v>1156610900</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>310</v>
+        <v>643</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C323" s="1">
         <v>1156611000</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>321</v>
+        <v>644</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C324" s="1">
         <v>1156620000</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="C325" s="1">
         <v>1156620100</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>321</v>
+        <v>644</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C326" s="1">
         <v>1156620200</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>321</v>
+        <v>644</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C327" s="1">
         <v>1156620300</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>321</v>
+        <v>644</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C328" s="1">
         <v>1156620400</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>321</v>
+        <v>644</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C329" s="1">
         <v>1156620500</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>321</v>
+        <v>644</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C330" s="1">
         <v>1156620600</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>321</v>
+        <v>644</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C331" s="1">
         <v>1156620700</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>321</v>
+        <v>644</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C332" s="1">
         <v>1156620800</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>321</v>
+        <v>644</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C333" s="1">
         <v>1156620900</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>321</v>
+        <v>644</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C334" s="1">
         <v>1156621000</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>321</v>
+        <v>644</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C335" s="1">
         <v>1156621100</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>321</v>
+        <v>644</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C336" s="1">
         <v>1156621200</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>321</v>
+        <v>644</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C337" s="1">
         <v>1156622900</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>321</v>
+        <v>644</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C338" s="1">
         <v>1156623000</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>336</v>
+        <v>645</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C339" s="1">
         <v>1156630000</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="B340" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="C340" s="1">
         <v>1156630100</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>336</v>
+        <v>645</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C341" s="1">
         <v>1156632100</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>336</v>
+        <v>645</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C342" s="1">
         <v>1156632200</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>336</v>
+        <v>645</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C343" s="1">
         <v>1156632300</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>336</v>
+        <v>645</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C344" s="1">
         <v>1156632500</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>336</v>
+        <v>645</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C345" s="1">
         <v>1156632600</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>336</v>
+        <v>645</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C346" s="1">
         <v>1156632700</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>336</v>
+        <v>645</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C347" s="1">
         <v>1156632800</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>345</v>
+        <v>646</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C348" s="1">
         <v>1156640000</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="C349" s="1">
         <v>1156640100</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>345</v>
+        <v>646</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C350" s="1">
         <v>1156640200</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>345</v>
+        <v>646</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C351" s="1">
         <v>1156640300</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>345</v>
+        <v>646</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C352" s="1">
         <v>1156640400</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>345</v>
+        <v>646</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C353" s="1">
         <v>1156640500</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>351</v>
+        <v>647</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C354" s="1">
         <v>1156650000</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B355" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="C355" s="1">
         <v>1156650100</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>351</v>
+        <v>647</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C356" s="1">
         <v>1156650200</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>351</v>
+        <v>647</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C357" s="1">
         <v>1156652100</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>351</v>
+        <v>647</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C358" s="1">
         <v>1156652200</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>351</v>
+        <v>647</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C359" s="1">
         <v>1156652300</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>351</v>
+        <v>647</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C360" s="1">
         <v>1156652700</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>351</v>
+        <v>647</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C361" s="1">
         <v>1156652800</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>351</v>
+        <v>647</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C362" s="1">
         <v>1156652900</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>351</v>
+        <v>647</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C363" s="1">
         <v>1156653000</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>351</v>
+        <v>647</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C364" s="1">
         <v>1156653100</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>351</v>
+        <v>647</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C365" s="1">
         <v>1156653200</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>351</v>
+        <v>647</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C366" s="1">
         <v>1156654000</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>351</v>
+        <v>647</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C367" s="1">
         <v>1156654200</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>351</v>
+        <v>647</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C368" s="1">
         <v>1156654300</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>351</v>
+        <v>647</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C369" s="1">
         <v>1156659000</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C370" s="1">
         <v>1020000000</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C371" s="1">
         <v>1784000000</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C372" s="1">
         <v>1004000000</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C373" s="1">
         <v>1028000000</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C374" s="1">
         <v>1660000000</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C375" s="1">
         <v>1008000000</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C376" s="1">
         <v>1051000000</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C377" s="1">
         <v>1024000000</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C378" s="1">
         <v>1010000000</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C379" s="1">
         <v>1032000000</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C380" s="1">
         <v>1016000000</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C381" s="1">
         <v>1040000000</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C382" s="1">
         <v>1036000000</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C383" s="1">
         <v>1533000000</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C384" s="1">
         <v>1248000000</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C385" s="1">
         <v>1031000000</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C386" s="1">
         <v>1070000000</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C387" s="1">
         <v>1052000000</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C388" s="1">
         <v>1050000000</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C389" s="1">
         <v>1056000000</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C390" s="1">
         <v>1854000000</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C391" s="1">
         <v>1100000000</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C392" s="1">
         <v>1048000000</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C393" s="1">
         <v>1108000000</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C394" s="1">
         <v>1204000000</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C395" s="1">
         <v>1652000000</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C396" s="1">
         <v>1060000000</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C397" s="1">
         <v>1096000000</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C398" s="1">
         <v>1068000000</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C399" s="1">
         <v>1535000000</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C400" s="1">
         <v>1076000000</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C401" s="1">
         <v>1044000000</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C402" s="1">
         <v>1064000000</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C403" s="1">
         <v>1074000000</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C404" s="1">
         <v>1072000000</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C405" s="1">
         <v>1112000000</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C406" s="1">
         <v>1084000000</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C407" s="1">
         <v>1124000000</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C408" s="1">
         <v>1166000000</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C409" s="1">
         <v>1180000000</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C410" s="1">
         <v>1140000000</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C411" s="1">
         <v>1178000000</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C412" s="1">
         <v>1756000000</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C413" s="1">
         <v>1384000000</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C414" s="1">
         <v>1184000000</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C415" s="1">
         <v>1152000000</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C416" s="1">
         <v>1120000000</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C417" s="1">
         <v>1156000000</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C418" s="1">
         <v>1170000000</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C419" s="1">
         <v>1188000000</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C420" s="1">
         <v>1192000000</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C421" s="1">
         <v>1132000000</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C422" s="1">
         <v>1162000000</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C423" s="1">
         <v>1196000000</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C424" s="1">
         <v>1203000000</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C425" s="1">
         <v>1276000000</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C426" s="1">
         <v>1262000000</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C427" s="1">
         <v>1208000000</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C428" s="1">
         <v>1212000000</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C429" s="1">
         <v>1214000000</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C430" s="1">
         <v>1012000000</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C431" s="1">
         <v>1218000000</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C432" s="1">
         <v>1233000000</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C433" s="1">
         <v>1818000000</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C434" s="1">
         <v>1732000000</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C435" s="1">
         <v>1232000000</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C436" s="1">
         <v>1724000000</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C437" s="1">
         <v>1231000000</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C438" s="1">
         <v>1246000000</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C439" s="1">
         <v>1242000000</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C440" s="1">
         <v>1238000000</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C441" s="1">
         <v>1583000000</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C442" s="1">
         <v>1234000000</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C443" s="1">
         <v>1250000000</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C444" s="1">
         <v>1266000000</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C445" s="1">
         <v>1826000000</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C446" s="1">
         <v>1308000000</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C447" s="1">
         <v>1268000000</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C448" s="1">
         <v>1254000000</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C449" s="1">
         <v>1831000000</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C450" s="1">
         <v>1288000000</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C451" s="1">
         <v>1292000000</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C452" s="1">
         <v>1304000000</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C453" s="1">
         <v>1270000000</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C454" s="1">
         <v>1324000000</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C455" s="1">
         <v>1312000000</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C456" s="1">
         <v>1226000000</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C457" s="1">
         <v>1300000000</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C458" s="1">
         <v>1239000000</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C459" s="1">
         <v>1320000000</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C460" s="1">
         <v>1316000000</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C461" s="1">
         <v>1624000000</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C462" s="1">
         <v>1328000000</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C463" s="1">
         <v>1344000000</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C464" s="1">
         <v>1334000000</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C465" s="1">
         <v>1340000000</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C466" s="1">
         <v>1191000000</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C467" s="1">
         <v>1332000000</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C468" s="1">
         <v>1348000000</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C469" s="1">
         <v>1360000000</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C470" s="1">
         <v>1372000000</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C471" s="1">
         <v>1376000000</v>
       </c>
     </row>
-    <row r="472" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C472" s="1">
         <v>1833000000</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C473" s="1">
         <v>1356000000</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C474" s="1">
         <v>1086000000</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C475" s="1">
         <v>1368000000</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C476" s="1">
         <v>1364000000</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C477" s="1">
         <v>1352000000</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C478" s="1">
         <v>1380000000</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C479" s="1">
         <v>1832000000</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C480" s="1">
         <v>1388000000</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C481" s="1">
         <v>1400000000</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C482" s="1">
         <v>1392000000</v>
       </c>
     </row>
-    <row r="483" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C483" s="1">
         <v>1404000000</v>
       </c>
     </row>
-    <row r="484" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C484" s="1">
         <v>1417000000</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C485" s="1">
         <v>1116000000</v>
       </c>
     </row>
-    <row r="486" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C486" s="1">
         <v>1296000000</v>
       </c>
     </row>
-    <row r="487" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C487" s="1">
         <v>1174000000</v>
       </c>
     </row>
-    <row r="488" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C488" s="1">
         <v>1659000000</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C489" s="1">
         <v>1408000000</v>
       </c>
     </row>
-    <row r="490" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C490" s="1">
         <v>1410000000</v>
       </c>
     </row>
-    <row r="491" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C491" s="1">
         <v>1414000000</v>
       </c>
     </row>
-    <row r="492" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C492" s="1">
         <v>1136000000</v>
       </c>
     </row>
-    <row r="493" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C493" s="1">
         <v>1398000000</v>
       </c>
     </row>
-    <row r="494" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C494" s="1">
         <v>1418000000</v>
       </c>
     </row>
-    <row r="495" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C495" s="1">
         <v>1422000000</v>
       </c>
     </row>
-    <row r="496" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C496" s="1">
         <v>1662000000</v>
       </c>
     </row>
-    <row r="497" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C497" s="1">
         <v>1438000000</v>
       </c>
     </row>
-    <row r="498" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C498" s="1">
         <v>1144000000</v>
       </c>
     </row>
-    <row r="499" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C499" s="1">
         <v>1430000000</v>
       </c>
     </row>
-    <row r="500" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C500" s="1">
         <v>1426000000</v>
       </c>
     </row>
-    <row r="501" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C501" s="1">
         <v>1440000000</v>
       </c>
     </row>
-    <row r="502" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C502" s="1">
         <v>1442000000</v>
       </c>
     </row>
-    <row r="503" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C503" s="1">
         <v>1428000000</v>
       </c>
     </row>
-    <row r="504" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C504" s="1">
         <v>1434000000</v>
       </c>
     </row>
-    <row r="505" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C505" s="1">
         <v>1504000000</v>
       </c>
     </row>
-    <row r="506" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C506" s="1">
         <v>1492000000</v>
       </c>
     </row>
-    <row r="507" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C507" s="1">
         <v>1498000000</v>
       </c>
     </row>
-    <row r="508" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C508" s="1">
         <v>1499000000</v>
       </c>
     </row>
-    <row r="509" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C509" s="1">
         <v>1663000000</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C510" s="1">
         <v>1450000000</v>
       </c>
     </row>
-    <row r="511" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C511" s="1">
         <v>1584000000</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C512" s="1">
         <v>1807000000</v>
       </c>
     </row>
-    <row r="513" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C513" s="1">
         <v>1466000000</v>
       </c>
     </row>
-    <row r="514" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C514" s="1">
         <v>1104000000</v>
       </c>
     </row>
-    <row r="515" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C515" s="1">
         <v>1496000000</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C516" s="1">
         <v>1446000000</v>
       </c>
     </row>
-    <row r="517" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C517" s="1">
         <v>1580000000</v>
       </c>
     </row>
-    <row r="518" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C518" s="1">
         <v>1474000000</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C519" s="1">
         <v>1478000000</v>
       </c>
     </row>
-    <row r="520" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C520" s="1">
         <v>1500000000</v>
       </c>
     </row>
-    <row r="521" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C521" s="1">
         <v>1470000000</v>
       </c>
     </row>
-    <row r="522" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C522" s="1">
         <v>1480000000</v>
       </c>
     </row>
-    <row r="523" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C523" s="1">
         <v>1462000000</v>
       </c>
     </row>
-    <row r="524" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C524" s="1">
         <v>1454000000</v>
       </c>
     </row>
-    <row r="525" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C525" s="1">
         <v>1484000000</v>
       </c>
     </row>
-    <row r="526" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C526" s="1">
         <v>1458000000</v>
       </c>
     </row>
-    <row r="527" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C527" s="1">
         <v>1508000000</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C528" s="1">
         <v>1516000000</v>
       </c>
     </row>
-    <row r="529" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C529" s="1">
         <v>1540000000</v>
       </c>
     </row>
-    <row r="530" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C530" s="1">
         <v>1562000000</v>
       </c>
     </row>
-    <row r="531" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C531" s="1">
         <v>1574000000</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C532" s="1">
         <v>1566000000</v>
       </c>
     </row>
-    <row r="533" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C533" s="1">
         <v>1558000000</v>
       </c>
     </row>
-    <row r="534" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C534" s="1">
         <v>1528000000</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C535" s="1">
         <v>1578000000</v>
       </c>
     </row>
-    <row r="536" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C536" s="1">
         <v>1524000000</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C537" s="1">
         <v>1520000000</v>
       </c>
     </row>
-    <row r="538" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C538" s="1">
         <v>1570000000</v>
       </c>
     </row>
-    <row r="539" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C539" s="1">
         <v>1554000000</v>
       </c>
     </row>
-    <row r="540" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C540" s="1">
         <v>1512000000</v>
       </c>
     </row>
-    <row r="541" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C541" s="1">
         <v>1591000000</v>
       </c>
     </row>
-    <row r="542" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C542" s="1">
         <v>1604000000</v>
       </c>
     </row>
-    <row r="543" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C543" s="1">
         <v>1258000000</v>
       </c>
     </row>
-    <row r="544" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C544" s="1">
         <v>1598000000</v>
       </c>
     </row>
-    <row r="545" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C545" s="1">
         <v>1608000000</v>
       </c>
     </row>
-    <row r="546" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C546" s="1">
         <v>1586000000</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C547" s="1">
         <v>1616000000</v>
       </c>
     </row>
-    <row r="548" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C548" s="1">
         <v>1666000000</v>
       </c>
     </row>
-    <row r="549" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C549" s="1">
         <v>1612000000</v>
       </c>
     </row>
-    <row r="550" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C550" s="1">
         <v>1630000000</v>
       </c>
     </row>
-    <row r="551" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B551" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C551" s="1">
         <v>1275000000</v>
       </c>
     </row>
-    <row r="552" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C552" s="1">
         <v>1620000000</v>
       </c>
     </row>
-    <row r="553" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C553" s="1">
         <v>1585000000</v>
       </c>
     </row>
-    <row r="554" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C554" s="1">
         <v>1600000000</v>
       </c>
     </row>
-    <row r="555" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C555" s="1">
         <v>1634000000</v>
       </c>
     </row>
-    <row r="556" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C556" s="1">
         <v>1638000000</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C557" s="1">
         <v>1642000000</v>
       </c>
     </row>
-    <row r="558" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C558" s="1">
         <v>1688000000</v>
       </c>
     </row>
-    <row r="559" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C559" s="1">
         <v>1643000000</v>
       </c>
     </row>
-    <row r="560" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C560" s="1">
         <v>1646000000</v>
       </c>
     </row>
-    <row r="561" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C561" s="1">
         <v>1682000000</v>
       </c>
     </row>
-    <row r="562" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C562" s="1">
         <v>1090000000</v>
       </c>
     </row>
-    <row r="563" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C563" s="1">
         <v>1690000000</v>
       </c>
     </row>
-    <row r="564" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C564" s="1">
         <v>1729000000</v>
       </c>
     </row>
-    <row r="565" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B565" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C565" s="1">
         <v>1752000000</v>
       </c>
     </row>
-    <row r="566" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C566" s="1">
         <v>1702000000</v>
       </c>
     </row>
-    <row r="567" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C567" s="1">
         <v>1654000000</v>
       </c>
     </row>
-    <row r="568" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C568" s="1">
         <v>1705000000</v>
       </c>
     </row>
-    <row r="569" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C569" s="1">
         <v>1744000000</v>
       </c>
     </row>
-    <row r="570" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C570" s="1">
         <v>1703000000</v>
       </c>
     </row>
-    <row r="571" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C571" s="1">
         <v>1694000000</v>
       </c>
     </row>
-    <row r="572" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C572" s="1">
         <v>1674000000</v>
       </c>
     </row>
-    <row r="573" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C573" s="1">
         <v>1686000000</v>
       </c>
     </row>
-    <row r="574" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C574" s="1">
         <v>1706000000</v>
       </c>
     </row>
-    <row r="575" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C575" s="1">
         <v>1740000000</v>
       </c>
     </row>
-    <row r="576" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C576" s="1">
         <v>1728000000</v>
       </c>
     </row>
-    <row r="577" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C577" s="1">
         <v>1678000000</v>
       </c>
     </row>
-    <row r="578" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C578" s="1">
         <v>1222000000</v>
       </c>
     </row>
-    <row r="579" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C579" s="1">
         <v>1760000000</v>
       </c>
     </row>
-    <row r="580" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C580" s="1">
         <v>1748000000</v>
       </c>
     </row>
-    <row r="581" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C581" s="1">
         <v>1796000000</v>
       </c>
     </row>
-    <row r="582" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C582" s="1">
         <v>1148000000</v>
       </c>
     </row>
-    <row r="583" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C583" s="1">
         <v>1260000000</v>
       </c>
     </row>
-    <row r="584" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C584" s="1">
         <v>1768000000</v>
       </c>
     </row>
-    <row r="585" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C585" s="1">
         <v>1764000000</v>
       </c>
     </row>
-    <row r="586" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C586" s="1">
         <v>1762000000</v>
       </c>
     </row>
-    <row r="587" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C587" s="1">
         <v>1772000000</v>
       </c>
     </row>
-    <row r="588" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C588" s="1">
         <v>1626000000</v>
       </c>
     </row>
-    <row r="589" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C589" s="1">
         <v>1795000000</v>
       </c>
     </row>
-    <row r="590" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C590" s="1">
         <v>1788000000</v>
       </c>
     </row>
-    <row r="591" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C591" s="1">
         <v>1776000000</v>
       </c>
     </row>
-    <row r="592" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C592" s="1">
         <v>1792000000</v>
       </c>
     </row>
-    <row r="593" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C593" s="1">
         <v>1780000000</v>
       </c>
     </row>
-    <row r="594" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C594" s="1">
         <v>1798000000</v>
       </c>
     </row>
-    <row r="595" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B595" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C595" s="1">
         <v>1158000000</v>
       </c>
     </row>
-    <row r="596" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B596" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C596" s="1">
         <v>1834000000</v>
       </c>
     </row>
-    <row r="597" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C597" s="1">
         <v>1804000000</v>
       </c>
     </row>
-    <row r="598" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C598" s="1">
         <v>1800000000</v>
       </c>
     </row>
-    <row r="599" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C599" s="1">
         <v>1581000000</v>
       </c>
     </row>
-    <row r="600" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C600" s="1">
         <v>1840000000</v>
       </c>
     </row>
-    <row r="601" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C601" s="1">
         <v>1858000000</v>
       </c>
     </row>
-    <row r="602" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C602" s="1">
         <v>1860000000</v>
       </c>
     </row>
-    <row r="603" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C603" s="1">
         <v>1336000000</v>
       </c>
     </row>
-    <row r="604" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="604" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C604" s="1">
         <v>1670000000</v>
       </c>
     </row>
-    <row r="605" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="605" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C605" s="1">
         <v>1862000000</v>
       </c>
     </row>
-    <row r="606" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="606" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C606" s="1">
         <v>1092000000</v>
       </c>
     </row>
-    <row r="607" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="607" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B607" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C607" s="1">
         <v>1850000000</v>
       </c>
     </row>
-    <row r="608" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="608" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C608" s="1">
         <v>1704000000</v>
       </c>
     </row>
-    <row r="609" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="609" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C609" s="1">
         <v>1548000000</v>
       </c>
     </row>
-    <row r="610" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="610" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C610" s="1">
         <v>1876000000</v>
       </c>
     </row>
-    <row r="611" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="611" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C611" s="1">
         <v>1882000000</v>
       </c>
     </row>
-    <row r="612" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="612" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C612" s="1">
         <v>1887000000</v>
       </c>
     </row>
-    <row r="613" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="613" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C613" s="1">
         <v>1175000000</v>
       </c>
     </row>
-    <row r="614" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="614" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C614" s="1">
         <v>1710000000</v>
       </c>
     </row>
-    <row r="615" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="615" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C615" s="1">
         <v>1894000000</v>
       </c>
     </row>
-    <row r="616" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="616" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C616" s="1">
         <v>1716000000</v>
       </c>
     </row>
-    <row r="617" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="617" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
-        <v>616</v>
+        <v>649</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C617" s="1">
         <v>1000000000</v>
       </c>
     </row>
-    <row r="618" spans="1:3" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="618" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
-        <v>617</v>
+        <v>650</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C618" s="1">
         <v>1156000000</v>

--- a/SparkProjects/target/classes/ipRegion.xlsx
+++ b/SparkProjects/target/classes/ipRegion.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandler/Documents/Projects/ipdatabase-master/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandler/Documents/Projects/SparkSQL_project/SparkProjects/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080"/>
   </bookViews>
   <sheets>
     <sheet name="地域信息表" sheetId="1" r:id="rId1"/>
@@ -1898,10 +1898,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>heibei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>shanxi_J</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2022,6 +2018,10 @@
   </si>
   <si>
     <t>China</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hebei</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2440,8 +2440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A602" workbookViewId="0">
-      <selection activeCell="B622" sqref="B622"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>15</v>
@@ -2629,7 +2629,7 @@
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
@@ -2640,7 +2640,7 @@
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>17</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>18</v>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>19</v>
@@ -2673,7 +2673,7 @@
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>21</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
@@ -2706,7 +2706,7 @@
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>24</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>25</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>26</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>29</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>30</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>31</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>32</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>33</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>35</v>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>36</v>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>37</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>38</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>39</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>40</v>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>41</v>
@@ -2915,7 +2915,7 @@
     </row>
     <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>42</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>43</v>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>44</v>
@@ -2948,7 +2948,7 @@
     </row>
     <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>45</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>46</v>
@@ -2970,7 +2970,7 @@
     </row>
     <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>47</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>48</v>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>49</v>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>50</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>51</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>52</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>53</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>54</v>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>55</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>56</v>
@@ -3080,7 +3080,7 @@
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>57</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>58</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>59</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>60</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>61</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>62</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>63</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>64</v>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>65</v>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>66</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>67</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>68</v>
@@ -3212,7 +3212,7 @@
     </row>
     <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>69</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>70</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>71</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>72</v>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>73</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>74</v>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>75</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>76</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>77</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>78</v>
@@ -3322,7 +3322,7 @@
     </row>
     <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>79</v>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>80</v>
@@ -3344,7 +3344,7 @@
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>81</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>82</v>
@@ -3366,7 +3366,7 @@
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>83</v>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>84</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>85</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>86</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>87</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>88</v>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>89</v>
@@ -3443,7 +3443,7 @@
     </row>
     <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>90</v>
@@ -3454,7 +3454,7 @@
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>91</v>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>92</v>
@@ -3476,7 +3476,7 @@
     </row>
     <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>93</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>94</v>
@@ -3498,7 +3498,7 @@
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>95</v>
@@ -3509,7 +3509,7 @@
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>96</v>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="98" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>97</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="99" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>98</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="100" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>99</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>100</v>
@@ -3564,7 +3564,7 @@
     </row>
     <row r="102" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>101</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>102</v>
@@ -3586,7 +3586,7 @@
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>103</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>104</v>
@@ -3608,7 +3608,7 @@
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>105</v>
@@ -3619,7 +3619,7 @@
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>106</v>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>107</v>
@@ -3641,7 +3641,7 @@
     </row>
     <row r="109" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>108</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="110" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>109</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="111" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>110</v>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="112" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>111</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="113" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>112</v>
@@ -3696,7 +3696,7 @@
     </row>
     <row r="114" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>113</v>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="115" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>114</v>
@@ -3718,7 +3718,7 @@
     </row>
     <row r="116" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>115</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="117" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>116</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="118" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>117</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="119" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>118</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="120" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>119</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="121" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>120</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="122" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>121</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="123" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>122</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="124" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>123</v>
@@ -3817,10 +3817,10 @@
     </row>
     <row r="125" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C125" s="1">
         <v>1156420000</v>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="126" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>124</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="127" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>125</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="128" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>126</v>
@@ -3861,7 +3861,7 @@
     </row>
     <row r="129" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>127</v>
@@ -3872,7 +3872,7 @@
     </row>
     <row r="130" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>128</v>
@@ -3883,7 +3883,7 @@
     </row>
     <row r="131" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>129</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="132" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>130</v>
@@ -3905,7 +3905,7 @@
     </row>
     <row r="133" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>131</v>
@@ -3916,7 +3916,7 @@
     </row>
     <row r="134" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>132</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="135" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>133</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="136" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>134</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="137" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>135</v>
@@ -3960,7 +3960,7 @@
     </row>
     <row r="138" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>136</v>
@@ -3971,7 +3971,7 @@
     </row>
     <row r="139" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>137</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="140" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>138</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="141" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>139</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="142" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>140</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="143" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>141</v>
@@ -4026,7 +4026,7 @@
     </row>
     <row r="144" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>142</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="145" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>143</v>
@@ -4048,7 +4048,7 @@
     </row>
     <row r="146" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>144</v>
@@ -4059,7 +4059,7 @@
     </row>
     <row r="147" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>145</v>
@@ -4070,7 +4070,7 @@
     </row>
     <row r="148" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>146</v>
@@ -4081,7 +4081,7 @@
     </row>
     <row r="149" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>147</v>
@@ -4092,7 +4092,7 @@
     </row>
     <row r="150" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>148</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="151" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>149</v>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="152" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>150</v>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="153" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>151</v>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="154" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>152</v>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="155" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>153</v>
@@ -4158,7 +4158,7 @@
     </row>
     <row r="156" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>154</v>
@@ -4169,7 +4169,7 @@
     </row>
     <row r="157" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>155</v>
@@ -4180,7 +4180,7 @@
     </row>
     <row r="158" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>156</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="159" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>157</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="160" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>158</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="161" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>159</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="162" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>160</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="163" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="164" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>162</v>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="165" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>163</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="166" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>164</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="167" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>165</v>
@@ -4290,7 +4290,7 @@
     </row>
     <row r="168" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>166</v>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="169" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>167</v>
@@ -4312,7 +4312,7 @@
     </row>
     <row r="170" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>168</v>
@@ -4323,7 +4323,7 @@
     </row>
     <row r="171" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>169</v>
@@ -4334,7 +4334,7 @@
     </row>
     <row r="172" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>170</v>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="173" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>171</v>
@@ -4356,7 +4356,7 @@
     </row>
     <row r="174" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>172</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="175" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>173</v>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="176" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>174</v>
@@ -4389,7 +4389,7 @@
     </row>
     <row r="177" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>175</v>
@@ -4400,7 +4400,7 @@
     </row>
     <row r="178" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>176</v>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="179" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>177</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="180" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>178</v>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="181" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>179</v>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="182" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>180</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="183" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>181</v>
@@ -4466,7 +4466,7 @@
     </row>
     <row r="184" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>182</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="185" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>183</v>
@@ -4488,7 +4488,7 @@
     </row>
     <row r="186" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>184</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="187" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>185</v>
@@ -4510,7 +4510,7 @@
     </row>
     <row r="188" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>186</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="189" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>187</v>
@@ -4532,7 +4532,7 @@
     </row>
     <row r="190" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>188</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="191" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>189</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="192" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>190</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="193" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>191</v>
@@ -4576,7 +4576,7 @@
     </row>
     <row r="194" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>192</v>
@@ -4587,7 +4587,7 @@
     </row>
     <row r="195" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>193</v>
@@ -4598,7 +4598,7 @@
     </row>
     <row r="196" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>194</v>
@@ -4609,7 +4609,7 @@
     </row>
     <row r="197" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>195</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="198" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>196</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="199" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>197</v>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="200" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>198</v>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="201" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>199</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="202" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>200</v>
@@ -4675,7 +4675,7 @@
     </row>
     <row r="203" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>201</v>
@@ -4686,7 +4686,7 @@
     </row>
     <row r="204" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>202</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="205" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>203</v>
@@ -4708,7 +4708,7 @@
     </row>
     <row r="206" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>204</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="207" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>205</v>
@@ -4730,7 +4730,7 @@
     </row>
     <row r="208" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>206</v>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="209" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>207</v>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="210" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>208</v>
@@ -4763,7 +4763,7 @@
     </row>
     <row r="211" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>209</v>
@@ -4774,7 +4774,7 @@
     </row>
     <row r="212" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>210</v>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="213" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>211</v>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="214" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>212</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="215" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>213</v>
@@ -4818,7 +4818,7 @@
     </row>
     <row r="216" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>214</v>
@@ -4829,7 +4829,7 @@
     </row>
     <row r="217" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>215</v>
@@ -4840,7 +4840,7 @@
     </row>
     <row r="218" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>216</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="219" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>217</v>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="220" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>218</v>
@@ -4873,7 +4873,7 @@
     </row>
     <row r="221" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>219</v>
@@ -4884,7 +4884,7 @@
     </row>
     <row r="222" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>220</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="223" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>221</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="224" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>222</v>
@@ -4917,7 +4917,7 @@
     </row>
     <row r="225" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>223</v>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="226" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>224</v>
@@ -4939,7 +4939,7 @@
     </row>
     <row r="227" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>225</v>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="228" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>226</v>
@@ -4961,7 +4961,7 @@
     </row>
     <row r="229" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>227</v>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="230" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>228</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="231" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>229</v>
@@ -4994,7 +4994,7 @@
     </row>
     <row r="232" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>230</v>
@@ -5005,7 +5005,7 @@
     </row>
     <row r="233" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>231</v>
@@ -5016,7 +5016,7 @@
     </row>
     <row r="234" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>232</v>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="235" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>233</v>
@@ -5038,7 +5038,7 @@
     </row>
     <row r="236" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>234</v>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="237" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>235</v>
@@ -5060,7 +5060,7 @@
     </row>
     <row r="238" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>236</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="239" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>237</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="240" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>238</v>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="241" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>239</v>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="242" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>240</v>
@@ -5115,7 +5115,7 @@
     </row>
     <row r="243" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>241</v>
@@ -5126,7 +5126,7 @@
     </row>
     <row r="244" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>242</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="245" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>243</v>
@@ -5148,7 +5148,7 @@
     </row>
     <row r="246" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>244</v>
@@ -5159,7 +5159,7 @@
     </row>
     <row r="247" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>245</v>
@@ -5170,7 +5170,7 @@
     </row>
     <row r="248" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>246</v>
@@ -5181,7 +5181,7 @@
     </row>
     <row r="249" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>247</v>
@@ -5192,7 +5192,7 @@
     </row>
     <row r="250" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>248</v>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="251" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>249</v>
@@ -5214,7 +5214,7 @@
     </row>
     <row r="252" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>250</v>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="253" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>251</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="254" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>252</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="255" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>253</v>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="256" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>254</v>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="257" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>255</v>
@@ -5280,7 +5280,7 @@
     </row>
     <row r="258" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>256</v>
@@ -5291,7 +5291,7 @@
     </row>
     <row r="259" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>257</v>
@@ -5302,7 +5302,7 @@
     </row>
     <row r="260" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>258</v>
@@ -5313,7 +5313,7 @@
     </row>
     <row r="261" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>259</v>
@@ -5324,7 +5324,7 @@
     </row>
     <row r="262" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>137</v>
@@ -5335,7 +5335,7 @@
     </row>
     <row r="263" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>260</v>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="264" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>261</v>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="265" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>262</v>
@@ -5368,7 +5368,7 @@
     </row>
     <row r="266" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>263</v>
@@ -5379,7 +5379,7 @@
     </row>
     <row r="267" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>264</v>
@@ -5390,7 +5390,7 @@
     </row>
     <row r="268" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>265</v>
@@ -5401,7 +5401,7 @@
     </row>
     <row r="269" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>266</v>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="270" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>267</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="271" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>268</v>
@@ -5434,7 +5434,7 @@
     </row>
     <row r="272" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>269</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="273" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>270</v>
@@ -5456,7 +5456,7 @@
     </row>
     <row r="274" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>271</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="275" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>272</v>
@@ -5478,7 +5478,7 @@
     </row>
     <row r="276" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>273</v>
@@ -5489,7 +5489,7 @@
     </row>
     <row r="277" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>274</v>
@@ -5500,7 +5500,7 @@
     </row>
     <row r="278" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>275</v>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="279" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>276</v>
@@ -5522,7 +5522,7 @@
     </row>
     <row r="280" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>277</v>
@@ -5533,7 +5533,7 @@
     </row>
     <row r="281" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>278</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="282" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>279</v>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="283" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>280</v>
@@ -5566,7 +5566,7 @@
     </row>
     <row r="284" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>281</v>
@@ -5577,7 +5577,7 @@
     </row>
     <row r="285" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>282</v>
@@ -5588,7 +5588,7 @@
     </row>
     <row r="286" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>283</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="287" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>284</v>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="288" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>285</v>
@@ -5621,7 +5621,7 @@
     </row>
     <row r="289" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>286</v>
@@ -5632,7 +5632,7 @@
     </row>
     <row r="290" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>287</v>
@@ -5643,7 +5643,7 @@
     </row>
     <row r="291" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>288</v>
@@ -5654,7 +5654,7 @@
     </row>
     <row r="292" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>289</v>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="293" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>290</v>
@@ -5676,7 +5676,7 @@
     </row>
     <row r="294" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>291</v>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="295" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>292</v>
@@ -5698,7 +5698,7 @@
     </row>
     <row r="296" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>293</v>
@@ -5709,7 +5709,7 @@
     </row>
     <row r="297" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>294</v>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="298" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>295</v>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="299" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>296</v>
@@ -5742,7 +5742,7 @@
     </row>
     <row r="300" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>297</v>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="301" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>298</v>
@@ -5764,7 +5764,7 @@
     </row>
     <row r="302" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>299</v>
@@ -5775,7 +5775,7 @@
     </row>
     <row r="303" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>137</v>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="304" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>300</v>
@@ -5797,7 +5797,7 @@
     </row>
     <row r="305" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>301</v>
@@ -5808,7 +5808,7 @@
     </row>
     <row r="306" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>302</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="307" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>303</v>
@@ -5830,7 +5830,7 @@
     </row>
     <row r="308" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>304</v>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="309" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>305</v>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="310" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>306</v>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="311" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>307</v>
@@ -5874,7 +5874,7 @@
     </row>
     <row r="312" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>308</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="313" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>309</v>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="314" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>310</v>
@@ -5907,7 +5907,7 @@
     </row>
     <row r="315" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>311</v>
@@ -5918,7 +5918,7 @@
     </row>
     <row r="316" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>312</v>
@@ -5929,7 +5929,7 @@
     </row>
     <row r="317" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>313</v>
@@ -5940,7 +5940,7 @@
     </row>
     <row r="318" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>314</v>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="319" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>315</v>
@@ -5962,7 +5962,7 @@
     </row>
     <row r="320" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>316</v>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="321" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>317</v>
@@ -5984,7 +5984,7 @@
     </row>
     <row r="322" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>318</v>
@@ -5995,7 +5995,7 @@
     </row>
     <row r="323" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>319</v>
@@ -6006,7 +6006,7 @@
     </row>
     <row r="324" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>320</v>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="325" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>321</v>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="326" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>322</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="327" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>323</v>
@@ -6050,7 +6050,7 @@
     </row>
     <row r="328" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>324</v>
@@ -6061,7 +6061,7 @@
     </row>
     <row r="329" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>325</v>
@@ -6072,7 +6072,7 @@
     </row>
     <row r="330" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>326</v>
@@ -6083,7 +6083,7 @@
     </row>
     <row r="331" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>327</v>
@@ -6094,7 +6094,7 @@
     </row>
     <row r="332" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>328</v>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="333" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>329</v>
@@ -6116,7 +6116,7 @@
     </row>
     <row r="334" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>330</v>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="335" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>331</v>
@@ -6138,7 +6138,7 @@
     </row>
     <row r="336" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>332</v>
@@ -6149,7 +6149,7 @@
     </row>
     <row r="337" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>333</v>
@@ -6160,7 +6160,7 @@
     </row>
     <row r="338" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>334</v>
@@ -6171,7 +6171,7 @@
     </row>
     <row r="339" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>335</v>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="340" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>336</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="341" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>337</v>
@@ -6204,7 +6204,7 @@
     </row>
     <row r="342" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>338</v>
@@ -6215,7 +6215,7 @@
     </row>
     <row r="343" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>339</v>
@@ -6226,7 +6226,7 @@
     </row>
     <row r="344" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>340</v>
@@ -6237,7 +6237,7 @@
     </row>
     <row r="345" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>341</v>
@@ -6248,7 +6248,7 @@
     </row>
     <row r="346" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>342</v>
@@ -6259,7 +6259,7 @@
     </row>
     <row r="347" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>343</v>
@@ -6270,7 +6270,7 @@
     </row>
     <row r="348" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>344</v>
@@ -6281,7 +6281,7 @@
     </row>
     <row r="349" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>345</v>
@@ -6292,7 +6292,7 @@
     </row>
     <row r="350" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>346</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="351" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>347</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="352" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>348</v>
@@ -6325,7 +6325,7 @@
     </row>
     <row r="353" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>349</v>
@@ -6336,7 +6336,7 @@
     </row>
     <row r="354" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>350</v>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="355" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>351</v>
@@ -6358,7 +6358,7 @@
     </row>
     <row r="356" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>352</v>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="357" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>353</v>
@@ -6380,7 +6380,7 @@
     </row>
     <row r="358" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>354</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="359" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>355</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="360" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>356</v>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="361" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>357</v>
@@ -6424,7 +6424,7 @@
     </row>
     <row r="362" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>358</v>
@@ -6435,7 +6435,7 @@
     </row>
     <row r="363" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>359</v>
@@ -6446,7 +6446,7 @@
     </row>
     <row r="364" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>360</v>
@@ -6457,7 +6457,7 @@
     </row>
     <row r="365" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>361</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="366" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>362</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="367" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>363</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="368" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>364</v>
@@ -6501,7 +6501,7 @@
     </row>
     <row r="369" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>365</v>
@@ -6512,7 +6512,7 @@
     </row>
     <row r="370" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>366</v>
@@ -6523,7 +6523,7 @@
     </row>
     <row r="371" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>367</v>
@@ -6534,7 +6534,7 @@
     </row>
     <row r="372" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>368</v>
@@ -6545,7 +6545,7 @@
     </row>
     <row r="373" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>369</v>
@@ -6556,7 +6556,7 @@
     </row>
     <row r="374" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>370</v>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="375" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>371</v>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="376" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>372</v>
@@ -6589,7 +6589,7 @@
     </row>
     <row r="377" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>373</v>
@@ -6600,7 +6600,7 @@
     </row>
     <row r="378" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>374</v>
@@ -6611,7 +6611,7 @@
     </row>
     <row r="379" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>375</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="380" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>376</v>
@@ -6633,7 +6633,7 @@
     </row>
     <row r="381" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>377</v>
@@ -6644,7 +6644,7 @@
     </row>
     <row r="382" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>378</v>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="383" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>379</v>
@@ -6666,7 +6666,7 @@
     </row>
     <row r="384" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>380</v>
@@ -6677,7 +6677,7 @@
     </row>
     <row r="385" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>381</v>
@@ -6688,7 +6688,7 @@
     </row>
     <row r="386" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>382</v>
@@ -6699,7 +6699,7 @@
     </row>
     <row r="387" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>383</v>
@@ -6710,7 +6710,7 @@
     </row>
     <row r="388" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>384</v>
@@ -6721,7 +6721,7 @@
     </row>
     <row r="389" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>385</v>
@@ -6732,7 +6732,7 @@
     </row>
     <row r="390" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>386</v>
@@ -6743,7 +6743,7 @@
     </row>
     <row r="391" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>387</v>
@@ -6754,7 +6754,7 @@
     </row>
     <row r="392" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>388</v>
@@ -6765,7 +6765,7 @@
     </row>
     <row r="393" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>389</v>
@@ -6776,7 +6776,7 @@
     </row>
     <row r="394" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>390</v>
@@ -6787,7 +6787,7 @@
     </row>
     <row r="395" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>391</v>
@@ -6798,7 +6798,7 @@
     </row>
     <row r="396" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>392</v>
@@ -6809,7 +6809,7 @@
     </row>
     <row r="397" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>393</v>
@@ -6820,7 +6820,7 @@
     </row>
     <row r="398" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>394</v>
@@ -6831,7 +6831,7 @@
     </row>
     <row r="399" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>395</v>
@@ -6842,7 +6842,7 @@
     </row>
     <row r="400" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>396</v>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="401" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>397</v>
@@ -6864,7 +6864,7 @@
     </row>
     <row r="402" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>398</v>
@@ -6875,7 +6875,7 @@
     </row>
     <row r="403" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>399</v>
@@ -6886,7 +6886,7 @@
     </row>
     <row r="404" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>400</v>
@@ -6897,7 +6897,7 @@
     </row>
     <row r="405" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>401</v>
@@ -6908,7 +6908,7 @@
     </row>
     <row r="406" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>402</v>
@@ -6919,7 +6919,7 @@
     </row>
     <row r="407" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>403</v>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="408" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>404</v>
@@ -6941,7 +6941,7 @@
     </row>
     <row r="409" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>405</v>
@@ -6952,7 +6952,7 @@
     </row>
     <row r="410" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>406</v>
@@ -6963,7 +6963,7 @@
     </row>
     <row r="411" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>407</v>
@@ -6974,7 +6974,7 @@
     </row>
     <row r="412" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>408</v>
@@ -6985,7 +6985,7 @@
     </row>
     <row r="413" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>409</v>
@@ -6996,7 +6996,7 @@
     </row>
     <row r="414" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>410</v>
@@ -7007,7 +7007,7 @@
     </row>
     <row r="415" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>411</v>
@@ -7018,7 +7018,7 @@
     </row>
     <row r="416" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>412</v>
@@ -7029,7 +7029,7 @@
     </row>
     <row r="417" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>413</v>
@@ -7040,7 +7040,7 @@
     </row>
     <row r="418" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>414</v>
@@ -7051,7 +7051,7 @@
     </row>
     <row r="419" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>415</v>
@@ -7062,7 +7062,7 @@
     </row>
     <row r="420" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>416</v>
@@ -7073,7 +7073,7 @@
     </row>
     <row r="421" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>417</v>
@@ -7084,7 +7084,7 @@
     </row>
     <row r="422" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>418</v>
@@ -7095,7 +7095,7 @@
     </row>
     <row r="423" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>419</v>
@@ -7106,7 +7106,7 @@
     </row>
     <row r="424" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B424" s="1" t="s">
         <v>420</v>
@@ -7117,7 +7117,7 @@
     </row>
     <row r="425" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>421</v>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="426" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>422</v>
@@ -7139,7 +7139,7 @@
     </row>
     <row r="427" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>423</v>
@@ -7150,7 +7150,7 @@
     </row>
     <row r="428" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>424</v>
@@ -7161,7 +7161,7 @@
     </row>
     <row r="429" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>425</v>
@@ -7172,7 +7172,7 @@
     </row>
     <row r="430" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>426</v>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="431" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>427</v>
@@ -7194,7 +7194,7 @@
     </row>
     <row r="432" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>428</v>
@@ -7205,7 +7205,7 @@
     </row>
     <row r="433" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>429</v>
@@ -7216,7 +7216,7 @@
     </row>
     <row r="434" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>430</v>
@@ -7227,7 +7227,7 @@
     </row>
     <row r="435" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>431</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="436" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>432</v>
@@ -7249,7 +7249,7 @@
     </row>
     <row r="437" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>433</v>
@@ -7260,7 +7260,7 @@
     </row>
     <row r="438" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>434</v>
@@ -7271,7 +7271,7 @@
     </row>
     <row r="439" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>435</v>
@@ -7282,7 +7282,7 @@
     </row>
     <row r="440" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>436</v>
@@ -7293,7 +7293,7 @@
     </row>
     <row r="441" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>437</v>
@@ -7304,7 +7304,7 @@
     </row>
     <row r="442" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>438</v>
@@ -7315,7 +7315,7 @@
     </row>
     <row r="443" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>439</v>
@@ -7326,7 +7326,7 @@
     </row>
     <row r="444" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>440</v>
@@ -7337,7 +7337,7 @@
     </row>
     <row r="445" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>441</v>
@@ -7348,7 +7348,7 @@
     </row>
     <row r="446" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>442</v>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="447" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>443</v>
@@ -7370,7 +7370,7 @@
     </row>
     <row r="448" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B448" s="1" t="s">
         <v>444</v>
@@ -7381,7 +7381,7 @@
     </row>
     <row r="449" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>445</v>
@@ -7392,7 +7392,7 @@
     </row>
     <row r="450" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>446</v>
@@ -7403,7 +7403,7 @@
     </row>
     <row r="451" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>447</v>
@@ -7414,7 +7414,7 @@
     </row>
     <row r="452" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>448</v>
@@ -7425,7 +7425,7 @@
     </row>
     <row r="453" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B453" s="1" t="s">
         <v>449</v>
@@ -7436,7 +7436,7 @@
     </row>
     <row r="454" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B454" s="1" t="s">
         <v>450</v>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="455" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>451</v>
@@ -7458,7 +7458,7 @@
     </row>
     <row r="456" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>452</v>
@@ -7469,7 +7469,7 @@
     </row>
     <row r="457" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B457" s="1" t="s">
         <v>453</v>
@@ -7480,7 +7480,7 @@
     </row>
     <row r="458" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B458" s="1" t="s">
         <v>454</v>
@@ -7491,7 +7491,7 @@
     </row>
     <row r="459" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B459" s="1" t="s">
         <v>455</v>
@@ -7502,7 +7502,7 @@
     </row>
     <row r="460" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B460" s="1" t="s">
         <v>456</v>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="461" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B461" s="1" t="s">
         <v>457</v>
@@ -7524,7 +7524,7 @@
     </row>
     <row r="462" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B462" s="1" t="s">
         <v>458</v>
@@ -7535,7 +7535,7 @@
     </row>
     <row r="463" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>459</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="464" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B464" s="1" t="s">
         <v>460</v>
@@ -7557,7 +7557,7 @@
     </row>
     <row r="465" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>461</v>
@@ -7568,7 +7568,7 @@
     </row>
     <row r="466" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B466" s="1" t="s">
         <v>462</v>
@@ -7579,7 +7579,7 @@
     </row>
     <row r="467" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>463</v>
@@ -7590,7 +7590,7 @@
     </row>
     <row r="468" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B468" s="1" t="s">
         <v>464</v>
@@ -7601,7 +7601,7 @@
     </row>
     <row r="469" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>465</v>
@@ -7612,7 +7612,7 @@
     </row>
     <row r="470" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B470" s="1" t="s">
         <v>466</v>
@@ -7623,7 +7623,7 @@
     </row>
     <row r="471" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>467</v>
@@ -7634,7 +7634,7 @@
     </row>
     <row r="472" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>468</v>
@@ -7645,7 +7645,7 @@
     </row>
     <row r="473" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>469</v>
@@ -7656,7 +7656,7 @@
     </row>
     <row r="474" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>470</v>
@@ -7667,7 +7667,7 @@
     </row>
     <row r="475" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B475" s="1" t="s">
         <v>471</v>
@@ -7678,7 +7678,7 @@
     </row>
     <row r="476" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B476" s="1" t="s">
         <v>472</v>
@@ -7689,7 +7689,7 @@
     </row>
     <row r="477" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>473</v>
@@ -7700,7 +7700,7 @@
     </row>
     <row r="478" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B478" s="1" t="s">
         <v>474</v>
@@ -7711,7 +7711,7 @@
     </row>
     <row r="479" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>475</v>
@@ -7722,7 +7722,7 @@
     </row>
     <row r="480" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>476</v>
@@ -7733,7 +7733,7 @@
     </row>
     <row r="481" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>477</v>
@@ -7744,7 +7744,7 @@
     </row>
     <row r="482" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>478</v>
@@ -7755,7 +7755,7 @@
     </row>
     <row r="483" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>479</v>
@@ -7766,7 +7766,7 @@
     </row>
     <row r="484" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>480</v>
@@ -7777,7 +7777,7 @@
     </row>
     <row r="485" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>481</v>
@@ -7788,7 +7788,7 @@
     </row>
     <row r="486" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>482</v>
@@ -7799,7 +7799,7 @@
     </row>
     <row r="487" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>483</v>
@@ -7810,7 +7810,7 @@
     </row>
     <row r="488" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>484</v>
@@ -7821,7 +7821,7 @@
     </row>
     <row r="489" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>485</v>
@@ -7832,7 +7832,7 @@
     </row>
     <row r="490" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>486</v>
@@ -7843,7 +7843,7 @@
     </row>
     <row r="491" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>487</v>
@@ -7854,7 +7854,7 @@
     </row>
     <row r="492" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>488</v>
@@ -7865,7 +7865,7 @@
     </row>
     <row r="493" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>489</v>
@@ -7876,7 +7876,7 @@
     </row>
     <row r="494" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>490</v>
@@ -7887,7 +7887,7 @@
     </row>
     <row r="495" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>491</v>
@@ -7898,7 +7898,7 @@
     </row>
     <row r="496" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>492</v>
@@ -7909,7 +7909,7 @@
     </row>
     <row r="497" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>493</v>
@@ -7920,7 +7920,7 @@
     </row>
     <row r="498" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>494</v>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="499" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>495</v>
@@ -7942,7 +7942,7 @@
     </row>
     <row r="500" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>496</v>
@@ -7953,7 +7953,7 @@
     </row>
     <row r="501" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>497</v>
@@ -7964,7 +7964,7 @@
     </row>
     <row r="502" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>498</v>
@@ -7975,7 +7975,7 @@
     </row>
     <row r="503" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>499</v>
@@ -7986,7 +7986,7 @@
     </row>
     <row r="504" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>500</v>
@@ -7997,7 +7997,7 @@
     </row>
     <row r="505" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>501</v>
@@ -8008,7 +8008,7 @@
     </row>
     <row r="506" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>502</v>
@@ -8019,7 +8019,7 @@
     </row>
     <row r="507" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>503</v>
@@ -8030,7 +8030,7 @@
     </row>
     <row r="508" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>504</v>
@@ -8041,7 +8041,7 @@
     </row>
     <row r="509" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>505</v>
@@ -8052,7 +8052,7 @@
     </row>
     <row r="510" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>506</v>
@@ -8063,7 +8063,7 @@
     </row>
     <row r="511" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>507</v>
@@ -8074,7 +8074,7 @@
     </row>
     <row r="512" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>508</v>
@@ -8085,7 +8085,7 @@
     </row>
     <row r="513" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>509</v>
@@ -8096,7 +8096,7 @@
     </row>
     <row r="514" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>510</v>
@@ -8107,7 +8107,7 @@
     </row>
     <row r="515" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>511</v>
@@ -8118,7 +8118,7 @@
     </row>
     <row r="516" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>512</v>
@@ -8129,7 +8129,7 @@
     </row>
     <row r="517" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>513</v>
@@ -8140,7 +8140,7 @@
     </row>
     <row r="518" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>514</v>
@@ -8151,7 +8151,7 @@
     </row>
     <row r="519" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>515</v>
@@ -8162,7 +8162,7 @@
     </row>
     <row r="520" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B520" s="1" t="s">
         <v>516</v>
@@ -8173,7 +8173,7 @@
     </row>
     <row r="521" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>517</v>
@@ -8184,7 +8184,7 @@
     </row>
     <row r="522" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>518</v>
@@ -8195,7 +8195,7 @@
     </row>
     <row r="523" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>519</v>
@@ -8206,7 +8206,7 @@
     </row>
     <row r="524" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>520</v>
@@ -8217,7 +8217,7 @@
     </row>
     <row r="525" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B525" s="1" t="s">
         <v>521</v>
@@ -8228,7 +8228,7 @@
     </row>
     <row r="526" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>522</v>
@@ -8239,7 +8239,7 @@
     </row>
     <row r="527" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>523</v>
@@ -8250,7 +8250,7 @@
     </row>
     <row r="528" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>524</v>
@@ -8261,7 +8261,7 @@
     </row>
     <row r="529" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>525</v>
@@ -8272,7 +8272,7 @@
     </row>
     <row r="530" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>526</v>
@@ -8283,7 +8283,7 @@
     </row>
     <row r="531" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>527</v>
@@ -8294,7 +8294,7 @@
     </row>
     <row r="532" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B532" s="1" t="s">
         <v>528</v>
@@ -8305,7 +8305,7 @@
     </row>
     <row r="533" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B533" s="1" t="s">
         <v>529</v>
@@ -8316,7 +8316,7 @@
     </row>
     <row r="534" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B534" s="1" t="s">
         <v>530</v>
@@ -8327,7 +8327,7 @@
     </row>
     <row r="535" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B535" s="1" t="s">
         <v>531</v>
@@ -8338,7 +8338,7 @@
     </row>
     <row r="536" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B536" s="1" t="s">
         <v>532</v>
@@ -8349,7 +8349,7 @@
     </row>
     <row r="537" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B537" s="1" t="s">
         <v>533</v>
@@ -8360,7 +8360,7 @@
     </row>
     <row r="538" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B538" s="1" t="s">
         <v>534</v>
@@ -8371,7 +8371,7 @@
     </row>
     <row r="539" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>535</v>
@@ -8382,7 +8382,7 @@
     </row>
     <row r="540" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B540" s="1" t="s">
         <v>536</v>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="541" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B541" s="1" t="s">
         <v>537</v>
@@ -8404,7 +8404,7 @@
     </row>
     <row r="542" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B542" s="1" t="s">
         <v>538</v>
@@ -8415,7 +8415,7 @@
     </row>
     <row r="543" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B543" s="1" t="s">
         <v>539</v>
@@ -8426,7 +8426,7 @@
     </row>
     <row r="544" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B544" s="1" t="s">
         <v>540</v>
@@ -8437,7 +8437,7 @@
     </row>
     <row r="545" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B545" s="1" t="s">
         <v>541</v>
@@ -8448,7 +8448,7 @@
     </row>
     <row r="546" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B546" s="1" t="s">
         <v>542</v>
@@ -8459,7 +8459,7 @@
     </row>
     <row r="547" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B547" s="1" t="s">
         <v>543</v>
@@ -8470,7 +8470,7 @@
     </row>
     <row r="548" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B548" s="1" t="s">
         <v>544</v>
@@ -8481,7 +8481,7 @@
     </row>
     <row r="549" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B549" s="1" t="s">
         <v>545</v>
@@ -8492,7 +8492,7 @@
     </row>
     <row r="550" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B550" s="1" t="s">
         <v>546</v>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="551" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B551" s="1" t="s">
         <v>547</v>
@@ -8514,7 +8514,7 @@
     </row>
     <row r="552" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B552" s="1" t="s">
         <v>548</v>
@@ -8525,7 +8525,7 @@
     </row>
     <row r="553" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B553" s="1" t="s">
         <v>549</v>
@@ -8536,7 +8536,7 @@
     </row>
     <row r="554" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>550</v>
@@ -8547,7 +8547,7 @@
     </row>
     <row r="555" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B555" s="1" t="s">
         <v>551</v>
@@ -8558,7 +8558,7 @@
     </row>
     <row r="556" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>552</v>
@@ -8569,7 +8569,7 @@
     </row>
     <row r="557" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B557" s="1" t="s">
         <v>553</v>
@@ -8580,7 +8580,7 @@
     </row>
     <row r="558" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B558" s="1" t="s">
         <v>554</v>
@@ -8591,7 +8591,7 @@
     </row>
     <row r="559" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B559" s="1" t="s">
         <v>555</v>
@@ -8602,7 +8602,7 @@
     </row>
     <row r="560" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>556</v>
@@ -8613,7 +8613,7 @@
     </row>
     <row r="561" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B561" s="1" t="s">
         <v>557</v>
@@ -8624,7 +8624,7 @@
     </row>
     <row r="562" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>558</v>
@@ -8635,7 +8635,7 @@
     </row>
     <row r="563" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B563" s="1" t="s">
         <v>559</v>
@@ -8646,7 +8646,7 @@
     </row>
     <row r="564" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B564" s="1" t="s">
         <v>560</v>
@@ -8657,7 +8657,7 @@
     </row>
     <row r="565" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>561</v>
@@ -8668,7 +8668,7 @@
     </row>
     <row r="566" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>562</v>
@@ -8679,7 +8679,7 @@
     </row>
     <row r="567" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B567" s="1" t="s">
         <v>563</v>
@@ -8690,7 +8690,7 @@
     </row>
     <row r="568" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>564</v>
@@ -8701,7 +8701,7 @@
     </row>
     <row r="569" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B569" s="1" t="s">
         <v>565</v>
@@ -8712,7 +8712,7 @@
     </row>
     <row r="570" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>566</v>
@@ -8723,7 +8723,7 @@
     </row>
     <row r="571" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B571" s="1" t="s">
         <v>567</v>
@@ -8734,7 +8734,7 @@
     </row>
     <row r="572" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B572" s="1" t="s">
         <v>568</v>
@@ -8745,7 +8745,7 @@
     </row>
     <row r="573" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B573" s="1" t="s">
         <v>569</v>
@@ -8756,7 +8756,7 @@
     </row>
     <row r="574" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B574" s="1" t="s">
         <v>570</v>
@@ -8767,7 +8767,7 @@
     </row>
     <row r="575" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B575" s="1" t="s">
         <v>571</v>
@@ -8778,7 +8778,7 @@
     </row>
     <row r="576" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B576" s="1" t="s">
         <v>572</v>
@@ -8789,7 +8789,7 @@
     </row>
     <row r="577" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B577" s="1" t="s">
         <v>573</v>
@@ -8800,7 +8800,7 @@
     </row>
     <row r="578" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B578" s="1" t="s">
         <v>574</v>
@@ -8811,7 +8811,7 @@
     </row>
     <row r="579" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B579" s="1" t="s">
         <v>575</v>
@@ -8822,7 +8822,7 @@
     </row>
     <row r="580" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B580" s="1" t="s">
         <v>576</v>
@@ -8833,7 +8833,7 @@
     </row>
     <row r="581" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B581" s="1" t="s">
         <v>577</v>
@@ -8844,7 +8844,7 @@
     </row>
     <row r="582" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>578</v>
@@ -8855,7 +8855,7 @@
     </row>
     <row r="583" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B583" s="1" t="s">
         <v>579</v>
@@ -8866,7 +8866,7 @@
     </row>
     <row r="584" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B584" s="1" t="s">
         <v>580</v>
@@ -8877,7 +8877,7 @@
     </row>
     <row r="585" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B585" s="1" t="s">
         <v>581</v>
@@ -8888,7 +8888,7 @@
     </row>
     <row r="586" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B586" s="1" t="s">
         <v>582</v>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="587" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B587" s="1" t="s">
         <v>583</v>
@@ -8910,7 +8910,7 @@
     </row>
     <row r="588" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>584</v>
@@ -8921,7 +8921,7 @@
     </row>
     <row r="589" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>585</v>
@@ -8932,7 +8932,7 @@
     </row>
     <row r="590" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>586</v>
@@ -8943,7 +8943,7 @@
     </row>
     <row r="591" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B591" s="1" t="s">
         <v>587</v>
@@ -8954,7 +8954,7 @@
     </row>
     <row r="592" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>588</v>
@@ -8965,7 +8965,7 @@
     </row>
     <row r="593" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>589</v>
@@ -8976,7 +8976,7 @@
     </row>
     <row r="594" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B594" s="1" t="s">
         <v>590</v>
@@ -8987,7 +8987,7 @@
     </row>
     <row r="595" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B595" s="1" t="s">
         <v>591</v>
@@ -8998,7 +8998,7 @@
     </row>
     <row r="596" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B596" s="1" t="s">
         <v>592</v>
@@ -9009,7 +9009,7 @@
     </row>
     <row r="597" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B597" s="1" t="s">
         <v>593</v>
@@ -9020,7 +9020,7 @@
     </row>
     <row r="598" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B598" s="1" t="s">
         <v>594</v>
@@ -9031,7 +9031,7 @@
     </row>
     <row r="599" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B599" s="1" t="s">
         <v>595</v>
@@ -9042,7 +9042,7 @@
     </row>
     <row r="600" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B600" s="1" t="s">
         <v>596</v>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="601" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B601" s="1" t="s">
         <v>597</v>
@@ -9064,7 +9064,7 @@
     </row>
     <row r="602" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B602" s="1" t="s">
         <v>598</v>
@@ -9075,7 +9075,7 @@
     </row>
     <row r="603" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B603" s="1" t="s">
         <v>599</v>
@@ -9086,7 +9086,7 @@
     </row>
     <row r="604" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B604" s="1" t="s">
         <v>600</v>
@@ -9097,7 +9097,7 @@
     </row>
     <row r="605" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B605" s="1" t="s">
         <v>601</v>
@@ -9108,7 +9108,7 @@
     </row>
     <row r="606" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B606" s="1" t="s">
         <v>602</v>
@@ -9119,7 +9119,7 @@
     </row>
     <row r="607" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B607" s="1" t="s">
         <v>603</v>
@@ -9130,7 +9130,7 @@
     </row>
     <row r="608" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B608" s="1" t="s">
         <v>604</v>
@@ -9141,7 +9141,7 @@
     </row>
     <row r="609" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B609" s="1" t="s">
         <v>605</v>
@@ -9152,7 +9152,7 @@
     </row>
     <row r="610" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B610" s="1" t="s">
         <v>606</v>
@@ -9163,7 +9163,7 @@
     </row>
     <row r="611" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B611" s="1" t="s">
         <v>607</v>
@@ -9174,7 +9174,7 @@
     </row>
     <row r="612" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B612" s="1" t="s">
         <v>608</v>
@@ -9185,7 +9185,7 @@
     </row>
     <row r="613" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B613" s="1" t="s">
         <v>609</v>
@@ -9196,7 +9196,7 @@
     </row>
     <row r="614" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B614" s="1" t="s">
         <v>610</v>
@@ -9207,7 +9207,7 @@
     </row>
     <row r="615" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B615" s="1" t="s">
         <v>611</v>
@@ -9218,7 +9218,7 @@
     </row>
     <row r="616" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B616" s="1" t="s">
         <v>612</v>
@@ -9229,7 +9229,7 @@
     </row>
     <row r="617" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B617" s="1" t="s">
         <v>613</v>
@@ -9240,7 +9240,7 @@
     </row>
     <row r="618" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B618" s="1" t="s">
         <v>614</v>
